--- a/media/financial_output/mayb/output_maybank_statement3.xlsx
+++ b/media/financial_output/mayb/output_maybank_statement3.xlsx
@@ -268,13 +268,13 @@
     <t>address</t>
   </si>
   <si>
+    <t>account_holder</t>
+  </si>
+  <si>
+    <t>account_number</t>
+  </si>
+  <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>account_holder</t>
-  </si>
-  <si>
-    <t>account_number</t>
   </si>
   <si>
     <t>NO 19 JALAN N4 FASA 9A
@@ -284,15 +284,15 @@
 _x000C_</t>
   </si>
   <si>
+    <t>MUHAMMAD AZZUBAIR BIN AZEMAN
+_x000C_</t>
+  </si>
+  <si>
+    <t>: 162200-236128
+_x000C_</t>
+  </si>
+  <si>
     <t>' 31/12/20
-_x000C_</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AZ7UBAIB BIN AZEMAN
-_x000C_</t>
-  </si>
-  <si>
-    <t>: 162200-236128
 _x000C_</t>
   </si>
   <si>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
         <v>88</v>
